--- a/results_cnn_subnetwork_evaluation/summary_geenralized_surface_laplacian.xlsx
+++ b/results_cnn_subnetwork_evaluation/summary_geenralized_surface_laplacian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6204A97-7811-430D-900D-F479E01CB9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CF0AF-7E17-4A2E-BAAD-505878259DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_20250904" sheetId="3" r:id="rId1"/>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,18 +181,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,11 +461,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA93761-7CAE-402E-BF36-B12634FF117D}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -704,52 +690,52 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>32.548689867559418</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>32.196527074917029</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>33.241458259442837</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>32.813842103593743</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>32.723267502314037</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>33.05576461157392</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>33.410548534156867</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>1.31814009304057</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>1.331906661647525</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>1.8092278568469771</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>1.816404204967164</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>2.0507855503282659</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>2.0259864880932539</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <v>1.829535465099436</v>
       </c>
     </row>
@@ -758,50 +744,50 @@
         <v>17</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>65.959636329033998</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>65.878672537536374</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>65.205558294910276</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>65.877475872051946</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>63.940798219131082</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>56.715121526426131</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>43.318817636830772</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="5">
+      <c r="M6">
         <v>9.8453330426627517</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6">
         <v>8.8337226150042785</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6">
         <v>9.2389066451892905</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6">
         <v>9.4014047191678838</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
         <v>10.443359794995629</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6">
         <v>10.59389891231873</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6">
         <v>6.304443628482109</v>
       </c>
     </row>
@@ -810,50 +796,50 @@
         <v>10</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>82.881449378166479</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>82.496518135970007</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>78.972710259892665</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>72.595677009893421</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>66.617736024244735</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>59.865754317367212</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>45.698521036802497</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>6.0270041261137104</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7">
         <v>7.8662788886187363</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7">
         <v>7.0389696122536529</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <v>7.8371952128749678</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7">
         <v>8.7415788155091843</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
         <v>9.4691937935838464</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7">
         <v>10.826403795666829</v>
       </c>
     </row>
@@ -862,50 +848,50 @@
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>88.434507795626843</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>86.930584751309851</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>84.698647912179197</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>75.754827752258521</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>69.528542634451867</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8">
         <v>64.418342719227681</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8">
         <v>50.219794288877921</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="7">
+      <c r="M8">
         <v>5.6970355159584933</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8">
         <v>5.5788803242659997</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8">
         <v>5.9907199865821514</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8">
         <v>7.2539931796032722</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8">
         <v>7.2794708665250178</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8">
         <v>8.4844701454489737</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8">
         <v>11.07653781066678</v>
       </c>
     </row>
@@ -914,50 +900,50 @@
         <v>14</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>88.652174038414415</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>87.031286314472169</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>85.336211097558518</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>75.117688445978487</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9">
         <v>70.575959422947733</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <v>63.052353394060503</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <v>49.128521873026592</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="8">
+      <c r="M9">
         <v>5.5133179656584979</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9">
         <v>5.5180619980896184</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9">
         <v>5.8098306698559137</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9">
         <v>7.3359855710715438</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9">
         <v>7.8373890231343699</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9">
         <v>9.1018981576480726</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9">
         <v>10.73965686709869</v>
       </c>
     </row>
@@ -966,50 +952,50 @@
         <v>15</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>88.690974835422438</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>86.597170679100444</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>84.689114957741864</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10">
         <v>75.095891832974317</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10">
         <v>70.652969893049828</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10">
         <v>61.352379057489003</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>48.533701271925658</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="9">
+      <c r="M10">
         <v>4.9483395972654218</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10">
         <v>5.5913956633245894</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10">
         <v>5.3494093002815282</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10">
         <v>7.0622161586692451</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10">
         <v>7.6090281830274069</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10">
         <v>9.8381074752130928</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10">
         <v>9.9683563465115252</v>
       </c>
     </row>
@@ -1018,50 +1004,50 @@
         <v>16</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>88.676092930446345</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11">
         <v>86.62748812705992</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11">
         <v>83.84709498640413</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11">
         <v>75.705355005954502</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11">
         <v>70.314604797619353</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11">
         <v>61.648336058270402</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11">
         <v>47.976657814225611</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="10">
+      <c r="M11">
         <v>5.1548191193233324</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11">
         <v>5.6591813392935277</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11">
         <v>6.1756491983731658</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11">
         <v>7.5835702773277216</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11">
         <v>8.3083728372398653</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11">
         <v>9.5562359362164599</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11">
         <v>10.03227026232336</v>
       </c>
     </row>
@@ -1070,50 +1056,50 @@
         <v>13</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="11">
+      <c r="C12">
         <v>88.250688443094944</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12">
         <v>86.160843375231039</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12">
         <v>83.956277015083742</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12">
         <v>76.507224687641482</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12">
         <v>70.691162264956148</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12">
         <v>61.118256501642172</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12">
         <v>48.174747763100598</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="11">
+      <c r="M12">
         <v>5.423965254894064</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12">
         <v>5.2353564254767662</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12">
         <v>6.2854275668404238</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12">
         <v>6.5005152193256199</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12">
         <v>7.4978219178052914</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12">
         <v>10.056363293944701</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12">
         <v>9.8138572804505326</v>
       </c>
     </row>
@@ -1122,50 +1108,50 @@
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>88.589713867190298</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13">
         <v>86.230218254483177</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13">
         <v>83.553779300282301</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13">
         <v>77.443048815301182</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13">
         <v>71.086165681940727</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13">
         <v>60.820462691430443</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13">
         <v>49.267101503184847</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="12">
+      <c r="M13">
         <v>5.4027774553275636</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13">
         <v>5.4607728641776978</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13">
         <v>6.301154995033893</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13">
         <v>6.8103802487431082</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13">
         <v>8.1269125058227196</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13">
         <v>9.1362465992578326</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13">
         <v>9.2341162198174782</v>
       </c>
     </row>
@@ -1174,92 +1160,260 @@
         <v>8</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="13">
+      <c r="C14">
         <v>89.016467847184373</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14">
         <v>86.532299875719801</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14">
         <v>83.566657151013416</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14">
         <v>76.710536711678571</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14">
         <v>70.585682690450042</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14">
         <v>60.637935160915482</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14">
         <v>51.010458567980677</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="13">
+      <c r="M14">
         <v>5.1278773318773974</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14">
         <v>5.2731091936581986</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14">
         <v>6.1785867799594154</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14">
         <v>7.9425884299719147</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14">
         <v>8.1827067857879285</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14">
         <v>9.2063811742793611</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14">
         <v>8.2877129662031681</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="K15" s="15" t="s">
+      <c r="C15">
+        <v>89.100687145505873</v>
+      </c>
+      <c r="D15">
+        <v>86.314728789464738</v>
+      </c>
+      <c r="E15">
+        <v>84.284789084103963</v>
+      </c>
+      <c r="F15">
+        <v>76.11540180566729</v>
+      </c>
+      <c r="G15">
+        <v>70.274667889283918</v>
+      </c>
+      <c r="H15">
+        <v>59.974028033691177</v>
+      </c>
+      <c r="I15">
+        <v>51.360340487374437</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="M15">
+        <v>4.821355214326899</v>
+      </c>
+      <c r="N15">
+        <v>6.2875425713759689</v>
+      </c>
+      <c r="O15">
+        <v>5.9941429105297024</v>
+      </c>
+      <c r="P15">
+        <v>7.7003657392510458</v>
+      </c>
+      <c r="Q15">
+        <v>7.6563250565236736</v>
+      </c>
+      <c r="R15">
+        <v>9.5500863357276859</v>
+      </c>
+      <c r="S15">
+        <v>9.8269931165559949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="K16" s="15" t="s">
+      <c r="C16">
+        <v>87.825407947588957</v>
+      </c>
+      <c r="D16">
+        <v>85.894007156924673</v>
+      </c>
+      <c r="E16">
+        <v>83.903211388795185</v>
+      </c>
+      <c r="F16">
+        <v>76.277519701727513</v>
+      </c>
+      <c r="G16">
+        <v>69.117287635129486</v>
+      </c>
+      <c r="H16">
+        <v>59.965060251386262</v>
+      </c>
+      <c r="I16">
+        <v>52.320253635412072</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="M16">
+        <v>5.5888117971343396</v>
+      </c>
+      <c r="N16">
+        <v>5.6108109680545271</v>
+      </c>
+      <c r="O16">
+        <v>6.2292739874129763</v>
+      </c>
+      <c r="P16">
+        <v>7.3064477090022182</v>
+      </c>
+      <c r="Q16">
+        <v>7.9760968873677482</v>
+      </c>
+      <c r="R16">
+        <v>9.1323885774408993</v>
+      </c>
+      <c r="S16">
+        <v>7.8522680965399134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="K17" s="15" t="s">
+      <c r="C17">
+        <v>87.869079028942011</v>
+      </c>
+      <c r="D17">
+        <v>86.373371165263833</v>
+      </c>
+      <c r="E17">
+        <v>85.020132815451106</v>
+      </c>
+      <c r="F17">
+        <v>76.584419703745979</v>
+      </c>
+      <c r="G17">
+        <v>68.90758858929</v>
+      </c>
+      <c r="H17">
+        <v>58.504098939725537</v>
+      </c>
+      <c r="I17">
+        <v>51.538502351519767</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="M17">
+        <v>5.2454163707502293</v>
+      </c>
+      <c r="N17">
+        <v>5.165518260987036</v>
+      </c>
+      <c r="O17">
+        <v>5.9465036767027186</v>
+      </c>
+      <c r="P17">
+        <v>7.220599653862477</v>
+      </c>
+      <c r="Q17">
+        <v>8.3872286924100461</v>
+      </c>
+      <c r="R17">
+        <v>10.38001805370982</v>
+      </c>
+      <c r="S17">
+        <v>8.2695109344734181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="K18" s="15" t="s">
+      <c r="C18">
+        <v>88.089354867544984</v>
+      </c>
+      <c r="D18">
+        <v>86.671069818943067</v>
+      </c>
+      <c r="E18">
+        <v>84.185907029184207</v>
+      </c>
+      <c r="F18">
+        <v>75.888707226417765</v>
+      </c>
+      <c r="G18">
+        <v>68.13818746990313</v>
+      </c>
+      <c r="H18">
+        <v>58.352240647987152</v>
+      </c>
+      <c r="I18">
+        <v>52.007938361635198</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="2"/>
+      <c r="M18">
+        <v>5.2102758848387971</v>
+      </c>
+      <c r="N18">
+        <v>5.1312386516020574</v>
+      </c>
+      <c r="O18">
+        <v>5.5467144963577031</v>
+      </c>
+      <c r="P18">
+        <v>7.3938687819193074</v>
+      </c>
+      <c r="Q18">
+        <v>8.1095292701850585</v>
+      </c>
+      <c r="R18">
+        <v>9.347369951993219</v>
+      </c>
+      <c r="S18">
+        <v>9.236258167012668</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1474,886 +1628,736 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24">
         <v>16.15935163659665</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24">
         <v>15.84629830121616</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24">
         <v>16.759364216683132</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24">
         <v>16.374126994157919</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24">
         <v>16.313675392637968</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24">
         <v>16.611163541790848</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24">
         <v>16.924768475290968</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24">
         <v>1.189535996369868</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24">
         <v>1.1985316467790501</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24">
         <v>1.632170808847266</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24">
         <v>1.6270849933269</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24">
         <v>1.8352501940377779</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24">
         <v>1.8123601164634628</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24">
         <v>1.646591042577876</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="14">
+      <c r="C25">
         <v>64.660902941293756</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25">
         <v>64.144232590099605</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25">
         <v>63.468041183354472</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25">
         <v>63.876999267495172</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25">
         <v>61.992458746463562</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25">
         <v>54.14101011605603</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25">
         <v>35.493611600742042</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="14">
+      <c r="M25">
         <v>10.59173005592255</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25">
         <v>9.4789443491669463</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25">
         <v>10.104509126332809</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25">
         <v>10.08335340013069</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25">
         <v>11.487582689698669</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25">
         <v>11.412131870523661</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25">
         <v>8.8257131408803495</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="14">
+      <c r="C26">
         <v>82.158825533259005</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26">
         <v>81.720528781575169</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26">
         <v>77.949436297839711</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26">
         <v>70.97468986989935</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26">
         <v>64.582498562558342</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26">
         <v>57.78881499204055</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26">
         <v>37.639324909169659</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="14">
+      <c r="M26">
         <v>6.3926260580100287</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26">
         <v>8.4150410648056848</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26">
         <v>7.5896287463321226</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26">
         <v>8.5519905073962477</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26">
         <v>9.6242124476604776</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26">
         <v>10.40438820685454</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26">
         <v>13.681213363234479</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="14">
+      <c r="C27">
         <v>87.864846653207024</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27">
         <v>86.341626004179702</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27">
         <v>83.902313904145387</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27">
         <v>74.712778367976313</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27">
         <v>67.946979133503561</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27">
         <v>62.77734756517799</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27">
         <v>46.321765742793701</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="14">
+      <c r="M27">
         <v>6.1498594493426584</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27">
         <v>6.0664267774496983</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27">
         <v>6.6507134553174403</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27">
         <v>7.8787471918804499</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27">
         <v>7.7920072879916287</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27">
         <v>9.1348164979764466</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27">
         <v>12.25983870068527</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="14">
+      <c r="C28">
         <v>88.187469251347281</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28">
         <v>86.432869384493713</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28">
         <v>84.727694689081432</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28">
         <v>73.889065527407894</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28">
         <v>69.267780165616088</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28">
         <v>61.238754118879022</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28">
         <v>45.033545508265597</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="14">
+      <c r="M28">
         <v>5.8856841765369081</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28">
         <v>5.8971899378491539</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28">
         <v>6.2861330376914948</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28">
         <v>7.8856869599475301</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28">
         <v>8.3052923719528504</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28">
         <v>9.6249832153307491</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28">
         <v>12.13752274097291</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="14">
+      <c r="C29">
         <v>88.208088395653789</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29">
         <v>85.831242673376465</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29">
         <v>84.056089150080908</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29">
         <v>73.726113991421144</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29">
         <v>68.896294659415716</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29">
         <v>59.315045601964336</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29">
         <v>44.572037330963347</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="M29" s="14">
+      <c r="M29">
         <v>5.3281348537182343</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29">
         <v>6.1081795625648594</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29">
         <v>5.7820013193085611</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29">
         <v>7.822803194592713</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29">
         <v>8.269432380000783</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29">
         <v>10.81511281640895</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S29">
         <v>11.176739847718729</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="14">
+      <c r="C30">
         <v>88.127200079676669</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30">
         <v>86.083966898033253</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30">
         <v>83.157748643681913</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30">
         <v>74.322324094745412</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30">
         <v>68.755137433041853</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30">
         <v>59.86897529933082</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30">
         <v>43.14758988343609</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="2"/>
-      <c r="M30" s="14">
+      <c r="M30">
         <v>5.5669297918245322</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30">
         <v>6.1025249685872325</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30">
         <v>6.6414099750445583</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30">
         <v>8.3280085165491435</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q30">
         <v>8.9788388011180551</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30">
         <v>10.445668328700659</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30">
         <v>11.885278732662501</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="14">
+      <c r="C31">
         <v>87.623745057644228</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31">
         <v>85.54524439871264</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31">
         <v>83.144067236682673</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31">
         <v>75.238720869309589</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31">
         <v>69.234796248113511</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31">
         <v>58.997264098822924</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31">
         <v>43.590972475844211</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L31" s="2"/>
-      <c r="M31" s="14">
+      <c r="M31">
         <v>5.9744594696365709</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31">
         <v>5.7707293389498124</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31">
         <v>6.9501501698126553</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31">
         <v>6.9941536282857859</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q31">
         <v>7.96824720265165</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31">
         <v>11.009537164507149</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31">
         <v>11.43933680632561</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="14">
+      <c r="C32">
         <v>87.919979333196736</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32">
         <v>85.684143888853342</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32">
         <v>82.732079127688607</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32">
         <v>76.384178340983894</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32">
         <v>69.764401065074139</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32">
         <v>58.569211320757809</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32">
         <v>43.921720060025031</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="2"/>
-      <c r="M32" s="14">
+      <c r="M32">
         <v>5.9411492499928693</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32">
         <v>5.8794461804635878</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32">
         <v>6.933964086476867</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32">
         <v>7.3258185253661248</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q32">
         <v>8.8971780933747855</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32">
         <v>10.199502842508391</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S32">
         <v>10.69165047515261</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="14">
+      <c r="C33">
         <v>88.398976196834539</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33">
         <v>85.92607375174201</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33">
         <v>82.677059247051801</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33">
         <v>75.725352611133772</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33">
         <v>69.231507613864835</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33">
         <v>58.802410214219833</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33">
         <v>46.899508868744789</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="2"/>
-      <c r="M33" s="14">
+      <c r="M33">
         <v>5.653000034634502</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33">
         <v>5.6977127704082653</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33">
         <v>6.684782853454367</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33">
         <v>8.5933042179985737</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33">
         <v>8.74214371025373</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33">
         <v>10.04340663416666</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33">
         <v>9.8710533459008225</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="K34" s="15" t="s">
+      <c r="C34" s="4">
+        <v>88.512979015523385</v>
+      </c>
+      <c r="D34" s="4">
+        <v>85.631526025779294</v>
+      </c>
+      <c r="E34" s="4">
+        <v>83.581594500739271</v>
+      </c>
+      <c r="F34" s="4">
+        <v>75.249167470913747</v>
+      </c>
+      <c r="G34" s="4">
+        <v>69.006126261675533</v>
+      </c>
+      <c r="H34" s="4">
+        <v>57.991412380440558</v>
+      </c>
+      <c r="I34" s="4">
+        <v>48.042306661188675</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L34" s="2"/>
+      <c r="M34" s="5">
+        <v>5.173912842844242</v>
+      </c>
+      <c r="N34" s="5">
+        <v>6.7865713611037854</v>
+      </c>
+      <c r="O34" s="5">
+        <v>6.3930155113729628</v>
+      </c>
+      <c r="P34" s="5">
+        <v>8.2424541242766658</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>8.2076532991745825</v>
+      </c>
+      <c r="R34" s="5">
+        <v>10.18245516593301</v>
+      </c>
+      <c r="S34" s="5">
+        <v>11.328693903096649</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15" t="s">
+      <c r="C35" s="4">
+        <v>87.256210603001932</v>
+      </c>
+      <c r="D35" s="4">
+        <v>85.259433932894026</v>
+      </c>
+      <c r="E35" s="4">
+        <v>83.089080401489639</v>
+      </c>
+      <c r="F35" s="4">
+        <v>75.093901049017788</v>
+      </c>
+      <c r="G35" s="4">
+        <v>67.904367026444874</v>
+      </c>
+      <c r="H35" s="4">
+        <v>58.008971265833267</v>
+      </c>
+      <c r="I35" s="4">
+        <v>49.655608355396907</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="2"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-    </row>
-    <row r="36" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="M35" s="5">
+        <v>5.9562352572305368</v>
+      </c>
+      <c r="N35" s="5">
+        <v>6.0223093615757062</v>
+      </c>
+      <c r="O35" s="5">
+        <v>6.5292524713716489</v>
+      </c>
+      <c r="P35" s="5">
+        <v>8.178774843797056</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>8.4189729147130805</v>
+      </c>
+      <c r="R35" s="5">
+        <v>9.7874044580270017</v>
+      </c>
+      <c r="S35" s="5">
+        <v>8.3768035857696077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="K36" s="15" t="s">
+      <c r="C36" s="4">
+        <v>87.288589887707019</v>
+      </c>
+      <c r="D36" s="4">
+        <v>85.822726019731945</v>
+      </c>
+      <c r="E36" s="4">
+        <v>84.44895475164796</v>
+      </c>
+      <c r="F36" s="4">
+        <v>75.70387871106206</v>
+      </c>
+      <c r="G36" s="4">
+        <v>67.745946934965744</v>
+      </c>
+      <c r="H36" s="4">
+        <v>56.461085841348833</v>
+      </c>
+      <c r="I36" s="4">
+        <v>48.186451673139416</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="2"/>
+      <c r="M36" s="5">
+        <v>5.6697893917331825</v>
+      </c>
+      <c r="N36" s="5">
+        <v>5.4104606373352429</v>
+      </c>
+      <c r="O36" s="5">
+        <v>6.2324846486270191</v>
+      </c>
+      <c r="P36" s="5">
+        <v>7.8291435757740366</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>8.9463818932475423</v>
+      </c>
+      <c r="R36" s="5">
+        <v>11.166987003989179</v>
+      </c>
+      <c r="S36" s="5">
+        <v>9.2175035377980592</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15" t="s">
+      <c r="C37" s="4">
+        <v>87.61394902974817</v>
+      </c>
+      <c r="D37" s="4">
+        <v>86.185133735937072</v>
+      </c>
+      <c r="E37" s="4">
+        <v>83.61324707900269</v>
+      </c>
+      <c r="F37" s="4">
+        <v>75.181478339908978</v>
+      </c>
+      <c r="G37" s="4">
+        <v>67.075352077100135</v>
+      </c>
+      <c r="H37" s="4">
+        <v>56.423949138341598</v>
+      </c>
+      <c r="I37" s="4">
+        <v>49.246980312514431</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L37" s="2"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="M37" s="5">
+        <v>5.5251281343692806</v>
+      </c>
+      <c r="N37" s="5">
+        <v>5.3713615943733775</v>
+      </c>
+      <c r="O37" s="5">
+        <v>5.8428102650681906</v>
+      </c>
+      <c r="P37" s="5">
+        <v>7.8597542983990074</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>8.5916267293763369</v>
+      </c>
+      <c r="R37" s="5">
+        <v>10.076252991656839</v>
+      </c>
+      <c r="S37" s="5">
+        <v>10.13001038934417</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2375,8 +2379,338 @@
     <mergeCell ref="K23:L23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:C45">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="217">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="412">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="402">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="409">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="410">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="411">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I14">
+    <cfRule type="colorScale" priority="414">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:I23">
+    <cfRule type="colorScale" priority="326">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="325">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="324">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="304">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:I33">
+    <cfRule type="colorScale" priority="417">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:I35">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2388,7 +2722,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="273">
+    <cfRule type="colorScale" priority="303">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="299">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="293">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="302">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="413">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2399,8 +2773,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="279">
+  <conditionalFormatting sqref="M2:S14">
+    <cfRule type="colorScale" priority="416">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2411,240 +2785,60 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="282">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="283">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:I23">
-    <cfRule type="colorScale" priority="284">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:I23">
-    <cfRule type="colorScale" priority="289">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:I23">
-    <cfRule type="colorScale" priority="304">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:I23">
-    <cfRule type="colorScale" priority="305">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="306">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+  <conditionalFormatting sqref="M2:S18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:S23">
-    <cfRule type="colorScale" priority="315">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:S23">
-    <cfRule type="colorScale" priority="321">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:S23">
-    <cfRule type="colorScale" priority="323">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:S23">
-    <cfRule type="colorScale" priority="324">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="325">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="382">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="389">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="390">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="391">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="392">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="393">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I18">
-    <cfRule type="colorScale" priority="394">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S18">
-    <cfRule type="colorScale" priority="396">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:I33">
-    <cfRule type="colorScale" priority="397">
+    <cfRule type="colorScale" priority="341">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="343">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="344">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="345">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="335">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2656,7 +2850,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:S33">
-    <cfRule type="colorScale" priority="399">
+    <cfRule type="colorScale" priority="419">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:I37">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:S37">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
